--- a/Previgesst/Templates/NouvelleFiche.xlsx
+++ b/Previgesst/Templates/NouvelleFiche.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nancyg\Desktop\PREVIGESST_GITv2\SOURCES\Previgesst\Previgesst\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA\Data\Upwork\Vladimir_App\Code\Previgesst\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1044,6 +1044,51 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1056,190 +1101,145 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1325,7 +1325,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1593,642 +1593,642 @@
   </sheetPr>
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:M32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="31" style="2" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="2" customWidth="1"/>
-    <col min="14" max="17" width="11.42578125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="2"/>
+    <col min="6" max="6" width="15.68359375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.83984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.68359375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.41796875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9.15625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.578125" style="2" customWidth="1"/>
+    <col min="14" max="17" width="11.41796875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="11.41796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-    </row>
-    <row r="2" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-    </row>
-    <row r="3" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-    </row>
-    <row r="4" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="47" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+    </row>
+    <row r="2" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+    </row>
+    <row r="3" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+    </row>
+    <row r="4" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-    </row>
-    <row r="5" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-    </row>
-    <row r="6" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="63" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+    </row>
+    <row r="5" spans="1:14" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+    </row>
+    <row r="6" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="63" t="s">
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="65"/>
-    </row>
-    <row r="7" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="39"/>
-    </row>
-    <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
-    </row>
-    <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="89"/>
+    </row>
+    <row r="7" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66"/>
+    </row>
+    <row r="8" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="66"/>
+    </row>
+    <row r="9" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="66"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+    <row r="10" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="66"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="60"/>
+    <row r="11" spans="1:14" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="82"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+    <row r="12" spans="1:14" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-    </row>
-    <row r="13" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+    </row>
+    <row r="13" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55" t="s">
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="26">
         <v>1</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="27"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="23"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+    <row r="16" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
-    </row>
-    <row r="17" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
-    </row>
-    <row r="18" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
+    </row>
+    <row r="17" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="61"/>
+    </row>
+    <row r="18" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
-    </row>
-    <row r="19" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="44"/>
-    </row>
-    <row r="20" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="73"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
-    </row>
-    <row r="21" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
+    </row>
+    <row r="19" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="92"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="60"/>
+    </row>
+    <row r="20" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="61"/>
+    </row>
+    <row r="21" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
-    </row>
-    <row r="22" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="44"/>
-    </row>
-    <row r="23" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="75"/>
-    </row>
-    <row r="24" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="47"/>
+    </row>
+    <row r="22" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="60"/>
+    </row>
+    <row r="23" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="61"/>
+    </row>
+    <row r="24" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="32"/>
-    </row>
-    <row r="25" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="44"/>
-    </row>
-    <row r="26" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="75"/>
-    </row>
-    <row r="27" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="47"/>
+    </row>
+    <row r="25" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="55"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="60"/>
+    </row>
+    <row r="26" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="61"/>
+    </row>
+    <row r="27" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="32"/>
-    </row>
-    <row r="28" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="44"/>
-    </row>
-    <row r="29" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="47"/>
+    </row>
+    <row r="28" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="60"/>
+    </row>
+    <row r="29" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="92" t="s">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-    </row>
-    <row r="31" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="93" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+    </row>
+    <row r="31" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-    </row>
-    <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="94" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+    </row>
+    <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-    </row>
-    <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="79" t="s">
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+    </row>
+    <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-    </row>
-    <row r="34" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="80" t="s">
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+    </row>
+    <row r="34" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="82"/>
-    </row>
-    <row r="35" spans="1:13" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="83" t="s">
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="53"/>
+    </row>
+    <row r="35" spans="1:13" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-    </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+    </row>
+    <row r="36" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55" t="s">
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="53"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="55" t="s">
+      <c r="H36" s="37"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
       <c r="M36" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
@@ -2243,39 +2243,39 @@
       <c r="L38" s="11"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="21">
         <v>1</v>
       </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
       <c r="M39" s="13"/>
     </row>
-    <row r="40" spans="1:13" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
@@ -2290,7 +2290,7 @@
       <c r="L41" s="17"/>
       <c r="M41" s="18"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -2307,6 +2307,107 @@
     </row>
   </sheetData>
   <mergeCells count="125">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="C2:I3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A4:B11"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="A29:B29"/>
@@ -2331,111 +2432,10 @@
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="C2:I3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A4:B11"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="B14:F14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094499" right="0.23622047244094499" top="0.27559055118110198" bottom="0.59055118110236204" header="0.31496062992126" footer="0.196850393700787"/>
+  <pageSetup scale="18" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;8&amp;P DE &amp;N&amp;R&amp;G</oddFooter>
   </headerFooter>
@@ -2450,9 +2450,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28"/>
       <c r="B1" s="25"/>
     </row>
